--- a/data_dokter.xlsx
+++ b/data_dokter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\display_dokter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C67A9C-F7D5-47A9-9C81-EBB1712841EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957D1F63-7EA9-4308-B536-58308102C9AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B2262E34-366C-4A70-BE27-014AAB1BF4D8}"/>
+    <workbookView xWindow="2010" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{B2262E34-366C-4A70-BE27-014AAB1BF4D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,130 +433,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B6058F-B0AB-4065-A552-48A60A883C48}">
-  <dimension ref="B3:F10"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F10"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
+      <c r="D7">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data_dokter.xlsx
+++ b/data_dokter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\display_dokter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957D1F63-7EA9-4308-B536-58308102C9AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F883E0-9D5B-4BC0-9F8B-B5E50A568684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2010" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{B2262E34-366C-4A70-BE27-014AAB1BF4D8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Dokter</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>Tutup</t>
+  </si>
+  <si>
+    <t>Senin</t>
+  </si>
+  <si>
+    <t>Selasa</t>
+  </si>
+  <si>
+    <t>Sabtu</t>
   </si>
 </sst>
 </file>
@@ -436,10 +445,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -463,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -480,7 +492,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -548,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>

--- a/data_dokter.xlsx
+++ b/data_dokter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\display_dokter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F883E0-9D5B-4BC0-9F8B-B5E50A568684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBADF08F-7EFC-4B11-8C4D-044E00F1F642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{B2262E34-366C-4A70-BE27-014AAB1BF4D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B2262E34-366C-4A70-BE27-014AAB1BF4D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
   <si>
     <t>Dokter</t>
   </si>
@@ -85,6 +85,57 @@
   </si>
   <si>
     <t>Sabtu</t>
+  </si>
+  <si>
+    <t>dr.Rahmad</t>
+  </si>
+  <si>
+    <t>Kamis</t>
+  </si>
+  <si>
+    <t>dr.Yuliana</t>
+  </si>
+  <si>
+    <t>dr.Ignatia</t>
+  </si>
+  <si>
+    <t>dr.Bambang Am'Am</t>
+  </si>
+  <si>
+    <t>dr.Victor</t>
+  </si>
+  <si>
+    <t>dr.Bogi</t>
+  </si>
+  <si>
+    <t>dr.Shita</t>
+  </si>
+  <si>
+    <t>d.Laglaang</t>
+  </si>
+  <si>
+    <t>dr.Meilia</t>
+  </si>
+  <si>
+    <t>dr.Anna</t>
+  </si>
+  <si>
+    <t>dr.Begawan</t>
+  </si>
+  <si>
+    <t>dr.Monty</t>
+  </si>
+  <si>
+    <t>Klinik</t>
+  </si>
+  <si>
+    <t>Pagi</t>
+  </si>
+  <si>
+    <t>Sore</t>
+  </si>
+  <si>
+    <t>15:00 - 17:00</t>
   </si>
 </sst>
 </file>
@@ -442,133 +493,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B6058F-B0AB-4065-A552-48A60A883C48}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="B1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G19" t="s">
         <v>13</v>
       </c>
     </row>
